--- a/biology/Botanique/Association_nationale_pommes_poires/Association_nationale_pommes_poires.xlsx
+++ b/biology/Botanique/Association_nationale_pommes_poires/Association_nationale_pommes_poires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Association nationale pommes poires (ANPP) est une association loi de 1901 reconnue par l'État en 2009 comme association d'organisations de producteurs dans le secteur des fruits et légumes[1]. Elle regroupe 1 300 producteurs représentant 60 % de la production française de pomme[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Association nationale pommes poires (ANPP) est une association loi de 1901 reconnue par l'État en 2009 comme association d'organisations de producteurs dans le secteur des fruits et légumes. Elle regroupe 1 300 producteurs représentant 60 % de la production française de pomme.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Charte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À partir de 2010, l'ANPP s'est engagée dans une démarche visant à concilier performance économique et respect de l’environnement en créant sa charte « Qualité des Pomiculteurs de France » identifiée par le logo « Vergers écoresponsables »[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir de 2010, l'ANPP s'est engagée dans une démarche visant à concilier performance économique et respect de l’environnement en créant sa charte « Qualité des Pomiculteurs de France » identifiée par le logo « Vergers écoresponsables »,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Controverses autour des produits phytosanitaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ANPP a œuvré à l'abrogation, en 2016, d'un arrêté réglementant les produits phytosanitaires, considérant que les règles n'étaient pas « adaptées à l'arboriculture »[5].
-Après que l'ANPP a assigné Greenpeace en référé à la suite de l'utilisation de l'expression « pommes empoisonnées », la justice a décidé en 2017 en faveur de l'ONG au motif qu'elle avait agi « dans un but d’intérêt général et de santé publique »[6] : ainsi, selon France3, « Les pommes françaises sont bien empoisonnées aux pesticides »[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ANPP a œuvré à l'abrogation, en 2016, d'un arrêté réglementant les produits phytosanitaires, considérant que les règles n'étaient pas « adaptées à l'arboriculture ».
+Après que l'ANPP a assigné Greenpeace en référé à la suite de l'utilisation de l'expression « pommes empoisonnées », la justice a décidé en 2017 en faveur de l'ONG au motif qu'elle avait agi « dans un but d’intérêt général et de santé publique » : ainsi, selon France3, « Les pommes françaises sont bien empoisonnées aux pesticides ».
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Recours en justice contre la campagne de promotion Biocoop</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ANPP, Interfel et la Fédération nationale des producteurs de fruits (FNPF) ont fait condamner la société Biocoop le 21 septembre 2016 pour une campagne de publicité réalisée en septembre 2014. Ils ont invoqué le caractère trompeur de la publicité, qui selon eux dénigrait le produit et appelait au boycott des pommes non issues de l'agriculture biologique, en particulier par son slogan « N’achetez pas de pommes (traitées aux produits phyto) ». Biocoop sera condamné par le tribunal de grande instance de Paris pour pratique anticoncurrentielle à 10 000 € pour chacun des plaignants, mais l'accusation de publicité trompeuse ne sera pas retenue par le tribunal[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ANPP, Interfel et la Fédération nationale des producteurs de fruits (FNPF) ont fait condamner la société Biocoop le 21 septembre 2016 pour une campagne de publicité réalisée en septembre 2014. Ils ont invoqué le caractère trompeur de la publicité, qui selon eux dénigrait le produit et appelait au boycott des pommes non issues de l'agriculture biologique, en particulier par son slogan « N’achetez pas de pommes (traitées aux produits phyto) ». Biocoop sera condamné par le tribunal de grande instance de Paris pour pratique anticoncurrentielle à 10 000 € pour chacun des plaignants, mais l'accusation de publicité trompeuse ne sera pas retenue par le tribunal.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Lobbying</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ANPP mande le cabinet Droit devant pour effectuer des actions de représentation d'intérêts en France. Le cabinet déclare à ce titre des dépenses annuelles d'un montant compris entre 75 000 et 100 000 euros[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ANPP mande le cabinet Droit devant pour effectuer des actions de représentation d'intérêts en France. Le cabinet déclare à ce titre des dépenses annuelles d'un montant compris entre 75 000 et 100 000 euros.
 </t>
         </is>
       </c>
